--- a/doc/log/彭瑶瑶.xlsx
+++ b/doc/log/彭瑶瑶.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t xml:space="preserve">      日期</t>
   </si>
@@ -44,6 +44,27 @@
   </si>
   <si>
     <t>完成小部分</t>
+  </si>
+  <si>
+    <t>上午8:00-11:30</t>
+  </si>
+  <si>
+    <t>1.继续学习Python基础</t>
+  </si>
+  <si>
+    <t>大致了解</t>
+  </si>
+  <si>
+    <t>2.了解有关自然语言的文本分类过程</t>
+  </si>
+  <si>
+    <t>基本了解</t>
+  </si>
+  <si>
+    <t>3.看有关自然语言的书</t>
+  </si>
+  <si>
+    <t>才看一小部分</t>
   </si>
 </sst>
 </file>
@@ -51,8 +72,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -71,11 +92,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -87,16 +114,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,13 +162,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -133,13 +197,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -147,69 +220,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,31 +245,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,13 +371,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,133 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,7 +443,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -431,6 +491,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -451,21 +522,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -480,41 +536,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -523,10 +544,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -535,147 +556,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1000,13 +1024,13 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="17.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="26.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="32.7777777777778" customWidth="1"/>
     <col min="5" max="5" width="20.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1014,7 +1038,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1026,10 +1050,10 @@
       </c>
     </row>
     <row r="2" ht="31" customHeight="1" spans="1:5">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>43661</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1041,8 +1065,8 @@
       </c>
     </row>
     <row r="3" ht="31" customHeight="1" spans="1:5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1051,6 +1075,47 @@
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="28" customHeight="1" spans="1:5">
+      <c r="A4" s="3">
+        <v>43662</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="23" customHeight="1" spans="1:5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="23" customHeight="1" spans="1:5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/彭瑶瑶.xlsx
+++ b/doc/log/彭瑶瑶.xlsx
@@ -4,31 +4,33 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="23256" windowHeight="9647"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t xml:space="preserve">      日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        预计目标</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    实际完成</t>
-  </si>
-  <si>
-    <t>下午14:00-18:00</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>预计目标</t>
+  </si>
+  <si>
+    <t>实际完成</t>
+  </si>
+  <si>
+    <t>下午14:10-17:30</t>
   </si>
   <si>
     <t>1.完成Python的有关配置</t>
@@ -37,7 +39,7 @@
     <t>基本完成</t>
   </si>
   <si>
-    <t>晚上19:00-21:30</t>
+    <t>晚上19:10-21:30</t>
   </si>
   <si>
     <t>2.学习了解Python基本语法</t>
@@ -46,13 +48,16 @@
     <t>完成小部分</t>
   </si>
   <si>
-    <t>上午8:00-11:30</t>
+    <t>上午8：00-11：50</t>
   </si>
   <si>
     <t>1.继续学习Python基础</t>
   </si>
   <si>
     <t>大致了解</t>
+  </si>
+  <si>
+    <t>下午14:10-18:00</t>
   </si>
   <si>
     <t>2.了解有关自然语言的文本分类过程</t>
@@ -77,9 +82,24 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -99,13 +119,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -114,6 +127,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -133,21 +197,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,22 +217,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,23 +250,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,31 +265,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,49 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,43 +427,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,61 +449,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -489,20 +524,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,17 +563,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,10 +579,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,151 +591,157 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -764,7 +805,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -774,39 +815,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -885,131 +926,160 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1021,154 +1091,310 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="17.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="32.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="20.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="16.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7222222222222" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7777777777778" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.2685185185185" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="31" customHeight="1" spans="1:5">
-      <c r="A2" s="2">
+    <row r="2" ht="31.5" customHeight="1" spans="1:4">
+      <c r="A2" s="3">
         <v>43661</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="31" customHeight="1" spans="1:5">
+    <row r="3" ht="33" customHeight="1" spans="1:4">
       <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="28" customHeight="1" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" ht="42" customHeight="1" spans="1:4">
+      <c r="A4" s="6">
         <v>43662</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="23" customHeight="1" spans="1:5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
+    <row r="5" ht="42" customHeight="1" spans="1:4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" ht="23" customHeight="1" spans="1:5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="1" t="s">
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="42" customHeight="1" spans="1:4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" ht="42" customHeight="1" spans="1:4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" ht="42" customHeight="1" spans="1:4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" ht="42" customHeight="1" spans="1:4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" ht="42" customHeight="1" spans="1:4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" ht="42" customHeight="1" spans="1:4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" ht="42" customHeight="1" spans="1:4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" ht="42" customHeight="1" spans="1:4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" ht="42" customHeight="1" spans="1:4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" ht="42" customHeight="1" spans="1:4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" ht="42" customHeight="1" spans="1:4">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" ht="42" customHeight="1" spans="1:4">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" ht="42" customHeight="1" spans="1:4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" ht="42" customHeight="1" spans="1:4">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" ht="42" customHeight="1" spans="1:4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" ht="42" customHeight="1" spans="1:4">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" ht="42" customHeight="1" spans="1:4">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" ht="42" customHeight="1" spans="1:4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" ht="42" customHeight="1" spans="1:4">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" ht="42" customHeight="1" spans="1:4">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" ht="42" customHeight="1" spans="1:4">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" ht="42" customHeight="1" spans="1:4">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" ht="42" customHeight="1" spans="1:4">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" ht="42" customHeight="1" spans="1:4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" ht="42" customHeight="1" spans="1:4">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" ht="42" customHeight="1" spans="1:4">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" ht="42" customHeight="1" spans="1:4">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" ht="42" customHeight="1" spans="1:4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" ht="42" customHeight="1" spans="1:4">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" ht="42" customHeight="1" spans="1:4">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/doc/log/彭瑶瑶.xlsx
+++ b/doc/log/彭瑶瑶.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23256" windowHeight="9647"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>日期</t>
   </si>
@@ -70,6 +70,27 @@
   </si>
   <si>
     <t>才看一小部分</t>
+  </si>
+  <si>
+    <t>上午8：00-11：30</t>
+  </si>
+  <si>
+    <t>1.继续学习Python自然语言</t>
+  </si>
+  <si>
+    <t>看了一部分</t>
+  </si>
+  <si>
+    <t>2.在Python中导入nltk</t>
+  </si>
+  <si>
+    <t>未下载完</t>
+  </si>
+  <si>
+    <t>3.把未看完的Python基础了解完</t>
+  </si>
+  <si>
+    <t>完成</t>
   </si>
 </sst>
 </file>
@@ -77,8 +98,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -112,10 +133,58 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,14 +196,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -142,84 +219,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,24 +233,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,31 +286,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,151 +460,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,11 +495,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,17 +540,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,45 +592,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -579,10 +600,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,137 +612,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -741,6 +762,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1094,7 +1118,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1185,22 +1209,42 @@
       </c>
     </row>
     <row r="7" ht="42" customHeight="1" spans="1:4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="7">
+        <v>43663</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" ht="42" customHeight="1" spans="1:4">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" ht="42" customHeight="1" spans="1:4">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" ht="42" customHeight="1" spans="1:4">
       <c r="A10" s="2"/>

--- a/doc/log/彭瑶瑶.xlsx
+++ b/doc/log/彭瑶瑶.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
-  <si>
-    <t>日期</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>时间</t>
   </si>
@@ -91,6 +88,21 @@
   </si>
   <si>
     <t>完成</t>
+  </si>
+  <si>
+    <t>1.在Python中导入nltk</t>
+  </si>
+  <si>
+    <t>2.看机器学习</t>
+  </si>
+  <si>
+    <t>看一部分</t>
+  </si>
+  <si>
+    <t>3.看有关nlp的视频</t>
+  </si>
+  <si>
+    <t>了解一部分</t>
   </si>
 </sst>
 </file>
@@ -98,9 +110,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -133,8 +145,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -144,37 +200,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,6 +213,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -196,30 +237,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,45 +252,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,19 +298,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,163 +466,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,6 +537,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -536,6 +557,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,37 +599,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,10 +612,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,133 +624,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1117,8 +1129,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1131,17 +1143,15 @@
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" ht="31.5" customHeight="1" spans="1:4">
@@ -1149,25 +1159,25 @@
         <v>43661</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" ht="33" customHeight="1" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" ht="42" customHeight="1" spans="1:4">
@@ -1175,37 +1185,37 @@
         <v>43662</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" ht="42" customHeight="1" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" ht="42" customHeight="1" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" ht="42" customHeight="1" spans="1:4">
@@ -1213,56 +1223,76 @@
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" ht="42" customHeight="1" spans="1:4">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" ht="42" customHeight="1" spans="1:4">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="2" t="s">
+    </row>
+    <row r="10" ht="42" customHeight="1" spans="1:4">
+      <c r="A10" s="7">
+        <v>43664</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" ht="42" customHeight="1" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" ht="42" customHeight="1" spans="1:4">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" ht="42" customHeight="1" spans="1:4">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" ht="42" customHeight="1" spans="1:4">
       <c r="A13" s="2"/>

--- a/doc/log/彭瑶瑶.xlsx
+++ b/doc/log/彭瑶瑶.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>时间</t>
   </si>
@@ -103,6 +103,27 @@
   </si>
   <si>
     <t>了解一部分</t>
+  </si>
+  <si>
+    <t>1.继续学习机器学习第二章</t>
+  </si>
+  <si>
+    <t>学习一部分</t>
+  </si>
+  <si>
+    <t>下午14:30-18:00</t>
+  </si>
+  <si>
+    <t>2.学习flask</t>
+  </si>
+  <si>
+    <t>一部分</t>
+  </si>
+  <si>
+    <t>晚上18:40-21:30</t>
+  </si>
+  <si>
+    <t>3.看正则表达式</t>
   </si>
 </sst>
 </file>
@@ -110,10 +131,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -145,6 +166,112 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -153,53 +280,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,82 +309,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -298,31 +319,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,120 +493,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -455,30 +500,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,17 +528,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,15 +563,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -557,26 +574,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,6 +596,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -612,10 +633,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,133 +645,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1129,8 +1150,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1295,22 +1316,42 @@
       </c>
     </row>
     <row r="13" ht="42" customHeight="1" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="7">
+        <v>43665</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" ht="42" customHeight="1" spans="1:4">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" ht="42" customHeight="1" spans="1:4">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" ht="42" customHeight="1" spans="1:4">
       <c r="A16" s="2"/>

--- a/doc/log/彭瑶瑶.xlsx
+++ b/doc/log/彭瑶瑶.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>时间</t>
   </si>
@@ -124,6 +124,27 @@
   </si>
   <si>
     <t>3.看正则表达式</t>
+  </si>
+  <si>
+    <t>1.看Python自然语言</t>
+  </si>
+  <si>
+    <t>看部分</t>
+  </si>
+  <si>
+    <t>2.看flask</t>
+  </si>
+  <si>
+    <t>3.试着写一些正则表达式</t>
+  </si>
+  <si>
+    <t>请假了</t>
+  </si>
+  <si>
+    <t>1.下载vue的一些东西</t>
+  </si>
+  <si>
+    <t>2.试着创建vue项目</t>
   </si>
 </sst>
 </file>
@@ -131,10 +152,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -173,6 +194,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -188,125 +308,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -319,187 +340,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,17 +558,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -559,6 +569,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,39 +646,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -633,10 +654,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,133 +666,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1150,8 +1171,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1354,40 +1375,78 @@
       </c>
     </row>
     <row r="16" ht="42" customHeight="1" spans="1:4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="7">
+        <v>43666</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="17" ht="42" customHeight="1" spans="1:4">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" ht="42" customHeight="1" spans="1:4">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" ht="42" customHeight="1" spans="1:4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="7">
+        <v>43668</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" ht="42" customHeight="1" spans="1:4">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" ht="42" customHeight="1" spans="1:4">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" ht="42" customHeight="1" spans="1:4">
       <c r="A22" s="2"/>

--- a/doc/log/彭瑶瑶.xlsx
+++ b/doc/log/彭瑶瑶.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>时间</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>2.试着创建vue项目</t>
+  </si>
+  <si>
+    <t>1.了解vue的数据，方法，属性绑定，事件</t>
+  </si>
+  <si>
+    <t>2.了解vue的事件修饰符，键盘事件及键盘值修饰符</t>
+  </si>
+  <si>
+    <t>3.学习vue双向数据绑定，计算属性，动态绑定css</t>
   </si>
 </sst>
 </file>
@@ -152,10 +161,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -187,13 +196,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -203,12 +205,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -217,22 +257,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -247,6 +302,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -254,78 +332,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,187 +349,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,6 +568,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -569,39 +593,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,6 +637,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -654,10 +663,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,133 +675,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1171,15 +1180,15 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.7777777777778" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.7222222222222" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7777777777778" style="1" customWidth="1"/>
+    <col min="3" max="3" width="52.2222222222222" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.2685185185185" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -1448,23 +1457,43 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" ht="42" customHeight="1" spans="1:4">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+    <row r="22" ht="56" customHeight="1" spans="1:4">
+      <c r="A22" s="7">
+        <v>43669</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" ht="42" customHeight="1" spans="1:4">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" ht="42" customHeight="1" spans="1:4">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" ht="42" customHeight="1" spans="1:4">
       <c r="A25" s="2"/>

--- a/doc/log/彭瑶瑶.xlsx
+++ b/doc/log/彭瑶瑶.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>时间</t>
   </si>
@@ -154,6 +154,18 @@
   </si>
   <si>
     <t>3.学习vue双向数据绑定，计算属性，动态绑定css</t>
+  </si>
+  <si>
+    <t>1.学习vue的v-if、v-for指令，写一个简单的案例</t>
+  </si>
+  <si>
+    <t>2.学习vue初始组件的应用，搭建脚手架CLI，及部分详细内容</t>
+  </si>
+  <si>
+    <t>3.看自然语言文档</t>
+  </si>
+  <si>
+    <t>看了一小部分</t>
   </si>
 </sst>
 </file>
@@ -161,8 +173,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -196,6 +208,97 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -205,12 +308,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -219,120 +345,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -349,187 +361,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,6 +580,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -578,47 +605,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,6 +635,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -663,10 +675,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,133 +687,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1180,15 +1192,15 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.7777777777778" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.7222222222222" style="1" customWidth="1"/>
-    <col min="3" max="3" width="52.2222222222222" style="1" customWidth="1"/>
+    <col min="3" max="3" width="66.7777777777778" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.2685185185185" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -1496,22 +1508,42 @@
       </c>
     </row>
     <row r="25" ht="42" customHeight="1" spans="1:4">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="7">
+        <v>43670</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" ht="42" customHeight="1" spans="1:4">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="27" ht="42" customHeight="1" spans="1:4">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="28" ht="42" customHeight="1" spans="1:4">
       <c r="A28" s="2"/>

--- a/doc/log/彭瑶瑶.xlsx
+++ b/doc/log/彭瑶瑶.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
   <si>
     <t>时间</t>
   </si>
@@ -166,6 +166,15 @@
   </si>
   <si>
     <t>看了一小部分</t>
+  </si>
+  <si>
+    <t>1.学习vue的组件嵌套，组件css作用域</t>
+  </si>
+  <si>
+    <t>2.学习vue的属性值props，传值和传引用，事件传值（子传父）</t>
+  </si>
+  <si>
+    <t>3.学习vue的生命周期钩子，路由和请求</t>
   </si>
 </sst>
 </file>
@@ -173,10 +182,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -208,6 +217,75 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -215,8 +293,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,122 +355,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,187 +370,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,45 +579,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -626,20 +596,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,6 +632,45 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -675,10 +684,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,133 +696,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1192,8 +1201,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1546,22 +1555,42 @@
       </c>
     </row>
     <row r="28" ht="42" customHeight="1" spans="1:4">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="7">
+        <v>43671</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="29" ht="42" customHeight="1" spans="1:4">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="30" ht="42" customHeight="1" spans="1:4">
       <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="31" ht="42" customHeight="1" spans="1:4">
       <c r="A31" s="2"/>
